--- a/biology/Médecine/Humberto_Fernández_Morán/Humberto_Fernández_Morán.xlsx
+++ b/biology/Médecine/Humberto_Fernández_Morán/Humberto_Fernández_Morán.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Humberto_Fern%C3%A1ndez_Mor%C3%A1n</t>
+          <t>Humberto_Fernández_Morán</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Humberto Fernández Morán, né à Maracaibo (Venezuela) le 18 février 1924 et mort à Stockholm (Suède) le 17 mars 1999, est un médecin qui travailla dans le secteur de la micrographie électronique en se spécialisant dans la neurologie et la neuropathologie. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Humberto_Fern%C3%A1ndez_Mor%C3%A1n</t>
+          <t>Humberto_Fernández_Morán</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fondateur de l’IVIC (Instituto Venezolano de Investigaciones Científicas) et le créateur de la carrière universitaire de biophysique de l'UCV (Université centrale du Venezuela). Il est ministre du gouvernement du général Marcos Pérez Jiménez mais, après un coup d'État orchestré par les États-Unis et les révolutionnaires vénézuéliens, il est expulsé du Venezuela. 
 Humberto Fernandez Moran invente le « bistouri diamant », employé mondialement pour des coupes ultra-fines de tissus biologiques, ainsi que l'« ultra microtome » utilisé pour des coupes minces de tissus, devenant ainsi le premier Vénézuélien et le seul Latino-Américain à recevoir la médaille John Scott, à Philadelphie. Il a aussi été le chercheur principal du projet Apollo de la NASA. Il fut professeur dans les universités de Harvard et de Chicago, au Massachusetts Institute of Technology, à l'université George Washington et à l'Université de Stockholm. 
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Humberto_Fern%C3%A1ndez_Mor%C3%A1n</t>
+          <t>Humberto_Fernández_Morán</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Inventions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bistouri de diamant
 Ultra microtome</t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Humberto_Fern%C3%A1ndez_Mor%C3%A1n</t>
+          <t>Humberto_Fernández_Morán</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Prix John Scott
  Chevalier de l'ordre royal de l'Étoile polaire par le roi de Suède
